--- a/Consumer/McDonalds.xlsx
+++ b/Consumer/McDonalds.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C24F35F8-4839-F445-95D6-B67A3D2C85B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9568C84-76A0-8141-87F1-54C329E06E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AM$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AM$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AM$106</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -973,18 +959,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1022,12 +996,6 @@
     <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1047,6 +1015,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2571,11 +2557,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>286.79000000000002</v>
+    <v>298.86</v>
     <v>228.34</v>
-    <v>0.63229999999999997</v>
-    <v>0.82</v>
-    <v>2.882E-3</v>
+    <v>0.63900000000000001</v>
+    <v>-1.78</v>
+    <v>-6.0019999999999995E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>McDonald's Corporation operates and franchises McDonald's restaurants. The Company's restaurants serve a locally relevant menu of food and beverages. Its restaurants are owned and operated by independent local business owners. Its segments include the United States, International Operated Markets and International Developmental Licensed Markets &amp; Corporate. Its International Operated Markets segment includes its operations in markets, such as Australia, Canada, France, Germany, Italy, the Netherlands, Spain and the United Kingdom. Its International Developmental Licensed Markets &amp; Corporate segment includes markets in over 80 countries, as well as corporate activities. Its digital offerings include drive thru, takeaway, delivery, curbside pick-up and dine-in. Its menu includes hamburgers and cheeseburgers, the Big Mac, the Quarter Pounder with Cheese, the Filet-O-Fish, the McChicken and other chicken sandwiches, Chicken McNuggets, World Famous Fries, salads and others.</v>
     <v>150000</v>
@@ -2583,25 +2571,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 N Carpenter St, CHICAGO, IL, 60607-2104 US</v>
-    <v>286.79000000000002</v>
+    <v>296.94</v>
     <v>3</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45028.999215890624</v>
+    <v>45057.999660728907</v>
     <v>4</v>
-    <v>283.5</v>
-    <v>208696065570</v>
+    <v>293.36</v>
+    <v>215224380781</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>MCDONALD'S CORPORATION</v>
-    <v>283.85000000000002</v>
-    <v>34.194600000000001</v>
-    <v>284.48</v>
-    <v>285.3</v>
-    <v>731496900</v>
+    <v>296.5</v>
+    <v>31.8324</v>
+    <v>296.57</v>
+    <v>294.79000000000002</v>
+    <v>294.79000000000002</v>
+    <v>730093900</v>
     <v>MCD</v>
     <v>MCDONALD'S CORPORATION (XNYS:MCD)</v>
-    <v>2557446</v>
-    <v>2641509</v>
+    <v>1955152</v>
+    <v>2521107</v>
     <v>1964</v>
   </rv>
   <rv s="4">
@@ -2645,6 +2634,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2666,6 +2657,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2682,7 +2674,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="43">
+    <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2693,13 +2685,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2772,13 +2767,19 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
     </spb>
     <spb s="5">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2832,6 +2833,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2839,6 +2843,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3207,7 +3214,7 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="AP91" sqref="AP91"/>
@@ -5425,15 +5432,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>9.0022717715010394</v>
+        <v>9.2838758716019765</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>33.783803148573831</v>
-      </c>
-      <c r="AV16" s="65">
+        <v>34.84060944426458</v>
+      </c>
+      <c r="AV16" s="59">
         <f>AU101/AM106</f>
-        <v>38.031173680182235</v>
+        <v>39.220843878086562</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13558,10 +13565,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="32" t="s">
+      <c r="AT83" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="AU83" s="33"/>
+      <c r="AU83" s="61"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13681,10 +13688,10 @@
       <c r="AM84" s="1">
         <v>31300000</v>
       </c>
-      <c r="AT84" s="34" t="s">
+      <c r="AT84" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="AU84" s="35"/>
+      <c r="AU84" s="63"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14182,10 +14189,10 @@
       <c r="AM88" s="1">
         <v>0</v>
       </c>
-      <c r="AT88" s="36" t="s">
+      <c r="AT88" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="AU88" s="37">
+      <c r="AU88" s="33">
         <f>AU85/(AU86+AU87)</f>
         <v>2.4784903180763464E-2</v>
       </c>
@@ -14598,10 +14605,10 @@
       <c r="AM91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT91" s="36" t="s">
+      <c r="AT91" s="32" t="s">
         <v>128</v>
       </c>
-      <c r="AU91" s="37">
+      <c r="AU91" s="33">
         <f>AU89/AU90</f>
         <v>0.21059626344979171</v>
       </c>
@@ -14724,10 +14731,10 @@
       <c r="AM92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT92" s="38" t="s">
+      <c r="AT92" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="AU92" s="39">
+      <c r="AU92" s="35">
         <f>AU88*(1-AU91)</f>
         <v>1.956529518092982E-2</v>
       </c>
@@ -14850,10 +14857,10 @@
       <c r="AM93" s="1">
         <v>-2355900000</v>
       </c>
-      <c r="AT93" s="34" t="s">
+      <c r="AT93" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="AU93" s="35"/>
+      <c r="AU93" s="63"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14976,7 +14983,7 @@
       <c r="AT94" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="AU94" s="40">
+      <c r="AU94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -15098,12 +15105,12 @@
       <c r="AM95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT95" s="41" t="s">
+      <c r="AT95" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="AU95" s="42" cm="1">
+      <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.63229999999999997</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15227,7 +15234,7 @@
       <c r="AT96" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="AU96" s="40">
+      <c r="AU96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15349,12 +15356,12 @@
       <c r="AM97" s="1">
         <v>-3896000000</v>
       </c>
-      <c r="AT97" s="38" t="s">
+      <c r="AT97" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="AU97" s="39">
+      <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.8170515000000001E-2</v>
+        <v>6.8458950000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15475,10 +15482,10 @@
       <c r="AM98" s="1">
         <v>-4168200000</v>
       </c>
-      <c r="AT98" s="34" t="s">
+      <c r="AT98" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="AU98" s="35"/>
+      <c r="AU98" s="63"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15724,12 +15731,12 @@
       <c r="AM100" s="10">
         <v>-6580200000</v>
       </c>
-      <c r="AT100" s="36" t="s">
+      <c r="AT100" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="AU100" s="37">
+      <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>0.18919943120182325</v>
+        <v>0.18451946112500645</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15850,12 +15857,12 @@
       <c r="AM101" s="1">
         <v>-253800000</v>
       </c>
-      <c r="AT101" s="41" t="s">
+      <c r="AT101" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="AU101" s="43" cm="1">
+      <c r="AU101" s="39" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>208696065570</v>
+        <v>215224380781</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15976,12 +15983,12 @@
       <c r="AM102" s="10">
         <v>-2125400000</v>
       </c>
-      <c r="AT102" s="36" t="s">
+      <c r="AT102" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="AU102" s="37">
+      <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.81080056879817675</v>
+        <v>0.81548053887499361</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16102,12 +16109,12 @@
       <c r="AM103" s="1">
         <v>4709200000</v>
       </c>
-      <c r="AT103" s="38" t="s">
+      <c r="AT103" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="AU103" s="44">
+      <c r="AU103" s="40">
         <f>AU99+AU101</f>
-        <v>257395065570</v>
+        <v>263923380781</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16228,10 +16235,10 @@
       <c r="AM104" s="11">
         <v>2583800000</v>
       </c>
-      <c r="AT104" s="34" t="s">
+      <c r="AT104" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="AU104" s="35"/>
+      <c r="AU104" s="63"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16397,7 +16404,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.8974435056792333E-2</v>
+        <v>5.9437119160353102E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16518,33 +16525,33 @@
       <c r="AM106" s="1">
         <v>5487500000</v>
       </c>
-      <c r="AN106" s="45">
+      <c r="AN106" s="41">
         <f>AM106*(1+$AU$106)</f>
         <v>5776645737.39814</v>
       </c>
-      <c r="AO106" s="45">
+      <c r="AO106" s="41">
         <f t="shared" ref="AO106:AR106" si="9">AN106*(1+$AU$106)</f>
         <v>6081027057.0205193</v>
       </c>
-      <c r="AP106" s="45">
+      <c r="AP106" s="41">
         <f t="shared" si="9"/>
         <v>6401446747.6884451</v>
       </c>
-      <c r="AQ106" s="45">
+      <c r="AQ106" s="41">
         <f t="shared" si="9"/>
         <v>6738749898.5358801</v>
       </c>
-      <c r="AR106" s="45">
+      <c r="AR106" s="41">
         <f t="shared" si="9"/>
         <v>7093826127.8850918</v>
       </c>
-      <c r="AS106" s="46" t="s">
+      <c r="AS106" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="AT106" s="47" t="s">
+      <c r="AT106" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="AU106" s="48">
+      <c r="AU106" s="44">
         <f>(SUM(AN4:AR4)/5)</f>
         <v>5.2691706131779446E-2</v>
       </c>
@@ -16589,151 +16596,151 @@
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
       <c r="AM107" s="13"/>
-      <c r="AN107" s="46"/>
-      <c r="AO107" s="46"/>
-      <c r="AP107" s="46"/>
-      <c r="AQ107" s="46"/>
-      <c r="AR107" s="49">
+      <c r="AN107" s="42"/>
+      <c r="AO107" s="42"/>
+      <c r="AP107" s="42"/>
+      <c r="AQ107" s="42"/>
+      <c r="AR107" s="45">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>214018916544.97226</v>
-      </c>
-      <c r="AS107" s="50" t="s">
+        <v>211143439357.53491</v>
+      </c>
+      <c r="AS107" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="AT107" s="51" t="s">
+      <c r="AT107" s="47" t="s">
         <v>145</v>
       </c>
-      <c r="AU107" s="52">
+      <c r="AU107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN108" s="49">
+      <c r="AN108" s="45">
         <f t="shared" ref="AN108:AP108" si="10">AN107+AN106</f>
         <v>5776645737.39814</v>
       </c>
-      <c r="AO108" s="49">
+      <c r="AO108" s="45">
         <f t="shared" si="10"/>
         <v>6081027057.0205193</v>
       </c>
-      <c r="AP108" s="49">
+      <c r="AP108" s="45">
         <f t="shared" si="10"/>
         <v>6401446747.6884451</v>
       </c>
-      <c r="AQ108" s="49">
+      <c r="AQ108" s="45">
         <f>AQ107+AQ106</f>
         <v>6738749898.5358801</v>
       </c>
-      <c r="AR108" s="49">
+      <c r="AR108" s="45">
         <f>AR107+AR106</f>
-        <v>221112742672.85736</v>
-      </c>
-      <c r="AS108" s="50" t="s">
+        <v>218237265485.42001</v>
+      </c>
+      <c r="AS108" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="AT108" s="53" t="s">
+      <c r="AT108" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="AU108" s="54">
+      <c r="AU108" s="50">
         <f>AU105</f>
-        <v>5.8974435056792333E-2</v>
+        <v>5.9437119160353102E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="55" t="s">
+      <c r="AN109" s="64" t="s">
         <v>147</v>
       </c>
-      <c r="AO109" s="56"/>
+      <c r="AO109" s="65"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN110" s="57" t="s">
+      <c r="AN110" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="AO110" s="43">
+      <c r="AO110" s="39">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>187656293963.81857</v>
+        <v>185116092756.62903</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN111" s="57" t="s">
+      <c r="AN111" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="AO111" s="43">
+      <c r="AO111" s="39">
         <f>AM40</f>
         <v>2583800000</v>
       </c>
     </row>
     <row r="112" spans="1:47" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN112" s="57" t="s">
+      <c r="AN112" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="AO112" s="43">
+      <c r="AO112" s="39">
         <f>AU99</f>
         <v>48699000000</v>
       </c>
     </row>
     <row r="113" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN113" s="57" t="s">
+      <c r="AN113" s="51" t="s">
         <v>150</v>
       </c>
-      <c r="AO113" s="43">
+      <c r="AO113" s="39">
         <f>AO110+AO111-AO112</f>
-        <v>141541093963.81857</v>
+        <v>139000892756.62903</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN114" s="57" t="s">
+      <c r="AN114" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="AO114" s="58">
+      <c r="AO114" s="52">
         <f>AM34*(1+(AS16*5))</f>
         <v>671571127.33450413</v>
       </c>
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN115" s="59" t="s">
+      <c r="AN115" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="AO115" s="60">
+      <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>210.76113639012669</v>
+        <v>206.97866108141039</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN116" s="57" t="s">
+      <c r="AN116" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="AO116" s="61" cm="1">
+      <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>285.3</v>
+        <v>294.79000000000002</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN117" s="62" t="s">
+      <c r="AN117" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="AO117" s="63">
+      <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>-0.26126485667673782</v>
+        <v>-0.29787760412018593</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AN118" s="62" t="s">
+      <c r="AN118" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="AO118" s="64" t="str">
+      <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AN109:AO109"/>
     <mergeCell ref="AT83:AU83"/>
     <mergeCell ref="AT84:AU84"/>
     <mergeCell ref="AT93:AU93"/>
     <mergeCell ref="AT98:AU98"/>
     <mergeCell ref="AT104:AU104"/>
-    <mergeCell ref="AN109:AO109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/MCD" display="ROIC.AI | MCD" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/McDonalds.xlsx
+++ b/Consumer/McDonalds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9568C84-76A0-8141-87F1-54C329E06E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B279C-8C0E-034D-BD96-75FAFA80CBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2558,12 +2558,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>298.86</v>
-    <v>228.34</v>
-    <v>0.63900000000000001</v>
-    <v>-1.78</v>
-    <v>-6.0019999999999995E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>230.58</v>
+    <v>0.63819999999999999</v>
+    <v>-3.5</v>
+    <v>-1.1933000000000001E-2</v>
     <v>USD</v>
     <v>McDonald's Corporation operates and franchises McDonald's restaurants. The Company's restaurants serve a locally relevant menu of food and beverages. Its restaurants are owned and operated by independent local business owners. Its segments include the United States, International Operated Markets and International Developmental Licensed Markets &amp; Corporate. Its International Operated Markets segment includes its operations in markets, such as Australia, Canada, France, Germany, Italy, the Netherlands, Spain and the United Kingdom. Its International Developmental Licensed Markets &amp; Corporate segment includes markets in over 80 countries, as well as corporate activities. Its digital offerings include drive thru, takeaway, delivery, curbside pick-up and dine-in. Its menu includes hamburgers and cheeseburgers, the Big Mac, the Quarter Pounder with Cheese, the Filet-O-Fish, the McChicken and other chicken sandwiches, Chicken McNuggets, World Famous Fries, salads and others.</v>
     <v>150000</v>
@@ -2571,26 +2569,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>110 N Carpenter St, CHICAGO, IL, 60607-2104 US</v>
-    <v>296.94</v>
+    <v>292.45</v>
     <v>3</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45057.999660728907</v>
+    <v>45100.78234173594</v>
     <v>4</v>
-    <v>293.36</v>
-    <v>215224380781</v>
+    <v>289.78500000000003</v>
+    <v>211581212220</v>
     <v>MCDONALD'S CORPORATION</v>
     <v>MCDONALD'S CORPORATION</v>
-    <v>296.5</v>
-    <v>31.8324</v>
-    <v>296.57</v>
-    <v>294.79000000000002</v>
-    <v>294.79000000000002</v>
+    <v>292.05</v>
+    <v>31.481400000000001</v>
+    <v>293.3</v>
+    <v>289.8</v>
     <v>730093900</v>
     <v>MCD</v>
     <v>MCDONALD'S CORPORATION (XNYS:MCD)</v>
-    <v>1955152</v>
-    <v>2521107</v>
+    <v>962275</v>
+    <v>2657253</v>
     <v>1964</v>
   </rv>
   <rv s="4">
@@ -2634,8 +2631,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2657,7 +2652,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2674,7 +2668,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2685,16 +2679,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2767,19 +2758,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -2833,9 +2818,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2843,9 +2825,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -3214,10 +3193,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AP91" sqref="AP91"/>
+      <selection pane="bottomRight" activeCell="AL115" sqref="AL115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5432,15 +5411,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>9.2838758716019765</v>
+        <v>9.1267248807295118</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>34.84060944426458</v>
+        <v>34.250851850293003</v>
       </c>
       <c r="AV16" s="59">
         <f>AU101/AM106</f>
-        <v>39.220843878086562</v>
+        <v>38.556940723462418</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -13565,10 +13544,10 @@
       <c r="AM83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AT83" s="60" t="s">
+      <c r="AT83" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="AU83" s="61"/>
+      <c r="AU83" s="63"/>
     </row>
     <row r="84" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13688,10 +13667,10 @@
       <c r="AM84" s="1">
         <v>31300000</v>
       </c>
-      <c r="AT84" s="62" t="s">
+      <c r="AT84" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="AU84" s="63"/>
+      <c r="AU84" s="65"/>
     </row>
     <row r="85" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -14857,10 +14836,10 @@
       <c r="AM93" s="1">
         <v>-2355900000</v>
       </c>
-      <c r="AT93" s="62" t="s">
+      <c r="AT93" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AU93" s="63"/>
+      <c r="AU93" s="65"/>
     </row>
     <row r="94" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -15110,7 +15089,7 @@
       </c>
       <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.63900000000000001</v>
+        <v>0.63819999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15361,7 +15340,7 @@
       </c>
       <c r="AU97" s="35">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.8458950000000005E-2</v>
+        <v>6.8424510000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15482,10 +15461,10 @@
       <c r="AM98" s="1">
         <v>-4168200000</v>
       </c>
-      <c r="AT98" s="62" t="s">
+      <c r="AT98" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="AU98" s="63"/>
+      <c r="AU98" s="65"/>
     </row>
     <row r="99" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15736,7 +15715,7 @@
       </c>
       <c r="AU100" s="33">
         <f>AU99/AU103</f>
-        <v>0.18451946112500645</v>
+        <v>0.18710219875968717</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15862,7 +15841,7 @@
       </c>
       <c r="AU101" s="39" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>215224380781</v>
+        <v>211581212220</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15988,7 +15967,7 @@
       </c>
       <c r="AU102" s="33">
         <f>AU101/AU103</f>
-        <v>0.81548053887499361</v>
+        <v>0.81289780124031286</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16114,7 +16093,7 @@
       </c>
       <c r="AU103" s="40">
         <f>AU99+AU101</f>
-        <v>263923380781</v>
+        <v>260280212220</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16235,10 +16214,10 @@
       <c r="AM104" s="11">
         <v>2583800000</v>
       </c>
-      <c r="AT104" s="62" t="s">
+      <c r="AT104" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="AU104" s="63"/>
+      <c r="AU104" s="65"/>
     </row>
     <row r="105" spans="1:47" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16404,7 +16383,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>5.9437119160353102E-2</v>
+        <v>5.9282843477680085E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16602,7 +16581,7 @@
       <c r="AQ107" s="42"/>
       <c r="AR107" s="45">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>211143439357.53491</v>
+        <v>212093602615.43445</v>
       </c>
       <c r="AS107" s="46" t="s">
         <v>144</v>
@@ -16633,7 +16612,7 @@
       </c>
       <c r="AR108" s="45">
         <f>AR107+AR106</f>
-        <v>218237265485.42001</v>
+        <v>219187428743.31955</v>
       </c>
       <c r="AS108" s="46" t="s">
         <v>140</v>
@@ -16643,14 +16622,14 @@
       </c>
       <c r="AU108" s="50">
         <f>AU105</f>
-        <v>5.9437119160353102E-2</v>
+        <v>5.9282843477680085E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
-      <c r="AN109" s="64" t="s">
+      <c r="AN109" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="AO109" s="65"/>
+      <c r="AO109" s="61"/>
     </row>
     <row r="110" spans="1:47" ht="20" x14ac:dyDescent="0.25">
       <c r="AN110" s="51" t="s">
@@ -16658,7 +16637,7 @@
       </c>
       <c r="AO110" s="39">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>185116092756.62903</v>
+        <v>185955464833.87814</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16685,7 +16664,7 @@
       </c>
       <c r="AO113" s="39">
         <f>AO110+AO111-AO112</f>
-        <v>139000892756.62903</v>
+        <v>139840264833.87814</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16703,7 +16682,7 @@
       </c>
       <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>206.97866108141039</v>
+        <v>208.22852433949984</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16712,7 +16691,7 @@
       </c>
       <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>294.79000000000002</v>
+        <v>289.8</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
@@ -16721,7 +16700,7 @@
       </c>
       <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>-0.29787760412018593</v>
+        <v>-0.28147507129227112</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
